--- a/public/updated_response.xlsx
+++ b/public/updated_response.xlsx
@@ -109,6 +109,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,61 +132,508 @@
   </sheetPr>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" t="s" s="0">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
     </row>
